--- a/Project_Documents/Plant_condition/Plant living condition.xlsx
+++ b/Project_Documents/Plant_condition/Plant living condition.xlsx
@@ -2582,8 +2582,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6544733" y="878425"/>
-          <a:ext cx="3002492" cy="2031997"/>
+          <a:off x="6524889" y="879748"/>
+          <a:ext cx="2969419" cy="2033320"/>
           <a:chOff x="6544733" y="1164166"/>
           <a:chExt cx="3002492" cy="2031997"/>
         </a:xfrm>
@@ -2800,8 +2800,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6165057" y="1666876"/>
-          <a:ext cx="2969418" cy="2433637"/>
+          <a:off x="6190570" y="1668577"/>
+          <a:ext cx="2994931" cy="2438740"/>
           <a:chOff x="6653213" y="190501"/>
           <a:chExt cx="2969418" cy="2624137"/>
         </a:xfrm>
@@ -7945,8 +7945,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8382001" y="783167"/>
-          <a:ext cx="2401358" cy="1672166"/>
+          <a:off x="8378032" y="783167"/>
+          <a:ext cx="2376223" cy="1668197"/>
           <a:chOff x="8382001" y="783167"/>
           <a:chExt cx="2401358" cy="1672166"/>
         </a:xfrm>
@@ -8048,8 +8048,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8392583" y="3079750"/>
-          <a:ext cx="3556000" cy="5238750"/>
+          <a:off x="8388614" y="3070489"/>
+          <a:ext cx="3517636" cy="5257272"/>
           <a:chOff x="8392583" y="3058583"/>
           <a:chExt cx="3556000" cy="5228167"/>
         </a:xfrm>
@@ -8152,8 +8152,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8407399" y="8741837"/>
-          <a:ext cx="4080933" cy="1873247"/>
+          <a:off x="8398138" y="8752420"/>
+          <a:ext cx="4041246" cy="1875894"/>
           <a:chOff x="8407399" y="8710087"/>
           <a:chExt cx="4080933" cy="1862664"/>
         </a:xfrm>
@@ -9177,7 +9177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9413,7 +9413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9475,7 +9475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -9628,7 +9628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:R31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
@@ -10098,7 +10098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10761,7 +10761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -10816,9 +10816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10994,8 +10992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:J12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11121,7 +11119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -11481,7 +11479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11618,7 +11616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B8:G54"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11933,7 +11931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12294,7 +12292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12599,7 +12597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
